--- a/biology/Médecine/Base_du_crâne/Base_du_crâne.xlsx
+++ b/biology/Médecine/Base_du_crâne/Base_du_crâne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'être humain, la base du crâne est la la partie inférieure du squelette du crâne. Il forme le plancher de la cavité crânienne fermée en haut par la calvaria (voûte crânienne).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La limite supérieure de la base du crâne est formée par une ligne sinueuse globalement horizontale s'étendant de la glabelle à la protubérance occipitale externe. Elle passe par le bord supra-orbitaire, par l'arcade zygomatique et la ligne nuchale supérieure.
 Elle présente deux faces une face supérieure endocrânienne formant la base interne du crâne et une face inférieure exocrânienne formant la base externe du crâne.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Os de la base du crâne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les os intervenant dans la constitution de la base du crâne sont :
 les parties nasale et orbitale de l'os frontal,
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,16 +594,11 @@
           <t>Base interne du crâne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La base interne du crâne est divisée de trois fosses anatomiques : la fosse antérieure, la fosse moyenne et la fosse postérieure.
-Fosse crânienne antérieure
-Le plancher de la fosse crânienne antérieure est composée de la partie orbitale de l'os frontal, de la lame criblée de l'ethmoïde et des petites ailes du sphénoïde. Sur ce plancher reposent les lobes frontaux et les lobes olfactifs du cerveau.
-Fosse crânienne moyenne
-Le plancher de la fosse crânienne moyenne est composée majoritairement du corps et des grandes ailes de l'os sphénoïde, ainsi que de la majeure partie de l'os temporal. Sur ce plancher reposent les lobes temporaux et l'hypophyse.
-Fosse crânienne postérieure
-Le plancher de la fosse crânienne postérieure est composée en majorité de l'os occipital, ainsi que de la face postéro-supérieure de la portion pétreuse de l'os temporal.
-Elle présente en avant le clivus où repose le tronc cérébral, et en arrière le foramen magnum et la fosse cérébelleuse. Dans cette dernière repose le cervelet.
 </t>
         </is>
       </c>
@@ -598,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,12 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Base externe du crâne</t>
+          <t>Base interne du crâne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La base externe du crâne présente une partie antérieure qui s'articule avec le massif facial et une partie postérieure libre.
+          <t>Fosse crânienne antérieure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plancher de la fosse crânienne antérieure est composée de la partie orbitale de l'os frontal, de la lame criblée de l'ethmoïde et des petites ailes du sphénoïde. Sur ce plancher reposent les lobes frontaux et les lobes olfactifs du cerveau.
 </t>
         </is>
       </c>
@@ -629,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,12 +661,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Embryologie</t>
+          <t>Base interne du crâne</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les os constituant la base du crâne sont des os enchondraux.
+          <t>Fosse crânienne moyenne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plancher de la fosse crânienne moyenne est composée majoritairement du corps et des grandes ailes de l'os sphénoïde, ainsi que de la majeure partie de l'os temporal. Sur ce plancher reposent les lobes temporaux et l'hypophyse.
 </t>
         </is>
       </c>
@@ -660,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Base_du_cr%C3%A2ne</t>
+          <t>Base_du_crâne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,10 +698,116 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Base interne du crâne</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fosse crânienne postérieure</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plancher de la fosse crânienne postérieure est composée en majorité de l'os occipital, ainsi que de la face postéro-supérieure de la portion pétreuse de l'os temporal.
+Elle présente en avant le clivus où repose le tronc cérébral, et en arrière le foramen magnum et la fosse cérébelleuse. Dans cette dernière repose le cervelet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Base_du_crâne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Base_du_cr%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Base externe du crâne</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base externe du crâne présente une partie antérieure qui s'articule avec le massif facial et une partie postérieure libre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Base_du_crâne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Base_du_cr%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les os constituant la base du crâne sont des os enchondraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Base_du_crâne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Base_du_cr%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
